--- a/Forms/State forms/Maharashtra/Form I register of fine.xlsx
+++ b/Forms/State forms/Maharashtra/Form I register of fine.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Forms\State forms\Maharashtra\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-84" yWindow="-84" windowWidth="23124" windowHeight="10956"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Minimum wages Act</t>
   </si>
@@ -89,15 +94,12 @@
   <si>
     <t>Period</t>
   </si>
-  <si>
-    <t>master.father_name</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,42 +122,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Bell MT"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -217,37 +193,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -264,9 +214,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -275,22 +222,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,7 +323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,87 +532,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="12"/>
-    <col min="2" max="2" width="24.44140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13" style="12" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="12" customWidth="1"/>
-    <col min="12" max="16384" width="9.21875" style="12"/>
+    <col min="1" max="1" width="9.21875" style="9"/>
+    <col min="2" max="2" width="24.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9.21875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="15.45" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="15.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="15.45" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -697,7 +628,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="14"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -713,10 +644,10 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -750,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -784,40 +715,6 @@
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
